--- a/data-raw/files/locations/norway_locations.xlsx
+++ b/data-raw/files/locations/norway_locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/containers/volumes/workbench/r-packages/csdata/data-raw/files/locations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF06144-1F54-9A46-9EDB-FA91386DD3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EC7255-D4B3-2940-8E13-EFFB527C2E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61400" yWindow="8900" windowWidth="37020" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10780" yWindow="4420" windowWidth="37020" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7314" uniqueCount="1403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7314" uniqueCount="1402">
   <si>
     <t>year_start</t>
   </si>
@@ -4175,9 +4175,6 @@
   </si>
   <si>
     <t>Oslo-Oslove</t>
-  </si>
-  <si>
-    <t>Sørlandet-Agder</t>
   </si>
   <si>
     <t>Trøndelag-Trööndelage</t>
@@ -4592,8 +4589,8 @@
   <dimension ref="A1:L855"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J182" sqref="J182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9672,7 +9669,7 @@
         <v>1256</v>
       </c>
       <c r="J145" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K145" t="s">
         <v>761</v>
@@ -9707,7 +9704,7 @@
         <v>1256</v>
       </c>
       <c r="J146" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K146" t="s">
         <v>761</v>
@@ -9742,7 +9739,7 @@
         <v>1256</v>
       </c>
       <c r="J147" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K147" t="s">
         <v>761</v>
@@ -9777,7 +9774,7 @@
         <v>1256</v>
       </c>
       <c r="J148" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K148" t="s">
         <v>761</v>
@@ -9812,7 +9809,7 @@
         <v>1256</v>
       </c>
       <c r="J149" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K149" t="s">
         <v>761</v>
@@ -9847,7 +9844,7 @@
         <v>1256</v>
       </c>
       <c r="J150" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K150" t="s">
         <v>761</v>
@@ -9882,7 +9879,7 @@
         <v>1256</v>
       </c>
       <c r="J151" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K151" t="s">
         <v>761</v>
@@ -9917,7 +9914,7 @@
         <v>1256</v>
       </c>
       <c r="J152" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K152" t="s">
         <v>761</v>
@@ -9952,7 +9949,7 @@
         <v>1256</v>
       </c>
       <c r="J153" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K153" t="s">
         <v>761</v>
@@ -9987,7 +9984,7 @@
         <v>1256</v>
       </c>
       <c r="J154" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K154" t="s">
         <v>761</v>
@@ -10022,7 +10019,7 @@
         <v>1256</v>
       </c>
       <c r="J155" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K155" t="s">
         <v>761</v>
@@ -10057,7 +10054,7 @@
         <v>1256</v>
       </c>
       <c r="J156" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K156" t="s">
         <v>761</v>
@@ -10092,7 +10089,7 @@
         <v>1256</v>
       </c>
       <c r="J157" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K157" t="s">
         <v>761</v>
@@ -10127,7 +10124,7 @@
         <v>1256</v>
       </c>
       <c r="J158" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K158" t="s">
         <v>761</v>
@@ -10162,7 +10159,7 @@
         <v>1256</v>
       </c>
       <c r="J159" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K159" t="s">
         <v>761</v>
@@ -10197,7 +10194,7 @@
         <v>1256</v>
       </c>
       <c r="J160" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K160" t="s">
         <v>761</v>
@@ -10232,7 +10229,7 @@
         <v>1256</v>
       </c>
       <c r="J161" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K161" t="s">
         <v>761</v>
@@ -10267,7 +10264,7 @@
         <v>1256</v>
       </c>
       <c r="J162" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K162" t="s">
         <v>761</v>
@@ -10302,7 +10299,7 @@
         <v>1256</v>
       </c>
       <c r="J163" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K163" t="s">
         <v>761</v>
@@ -10337,7 +10334,7 @@
         <v>1256</v>
       </c>
       <c r="J164" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K164" t="s">
         <v>761</v>
@@ -10372,7 +10369,7 @@
         <v>1256</v>
       </c>
       <c r="J165" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K165" t="s">
         <v>761</v>
@@ -10407,7 +10404,7 @@
         <v>1256</v>
       </c>
       <c r="J166" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K166" t="s">
         <v>761</v>
@@ -10442,7 +10439,7 @@
         <v>1256</v>
       </c>
       <c r="J167" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K167" t="s">
         <v>761</v>
@@ -10477,7 +10474,7 @@
         <v>1256</v>
       </c>
       <c r="J168" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K168" t="s">
         <v>761</v>
@@ -10512,7 +10509,7 @@
         <v>1256</v>
       </c>
       <c r="J169" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K169" t="s">
         <v>761</v>
@@ -10547,7 +10544,7 @@
         <v>1256</v>
       </c>
       <c r="J170" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K170" t="s">
         <v>761</v>
@@ -10582,7 +10579,7 @@
         <v>1256</v>
       </c>
       <c r="J171" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K171" t="s">
         <v>761</v>
@@ -10617,7 +10614,7 @@
         <v>1256</v>
       </c>
       <c r="J172" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K172" t="s">
         <v>761</v>
@@ -10652,7 +10649,7 @@
         <v>1256</v>
       </c>
       <c r="J173" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K173" t="s">
         <v>761</v>
@@ -10687,7 +10684,7 @@
         <v>1256</v>
       </c>
       <c r="J174" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K174" t="s">
         <v>761</v>
@@ -14769,7 +14766,7 @@
         <v>1258</v>
       </c>
       <c r="J298" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K298" t="s">
         <v>952</v>
@@ -14804,7 +14801,7 @@
         <v>1258</v>
       </c>
       <c r="J299" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K299" t="s">
         <v>952</v>
@@ -14839,7 +14836,7 @@
         <v>1258</v>
       </c>
       <c r="J300" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K300" t="s">
         <v>952</v>
@@ -14874,7 +14871,7 @@
         <v>1258</v>
       </c>
       <c r="J301" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K301" t="s">
         <v>952</v>
@@ -14909,7 +14906,7 @@
         <v>1258</v>
       </c>
       <c r="J302" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K302" t="s">
         <v>952</v>
@@ -14944,7 +14941,7 @@
         <v>1258</v>
       </c>
       <c r="J303" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K303" t="s">
         <v>952</v>
@@ -14979,7 +14976,7 @@
         <v>1258</v>
       </c>
       <c r="J304" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K304" t="s">
         <v>952</v>
@@ -15014,7 +15011,7 @@
         <v>1258</v>
       </c>
       <c r="J305" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K305" t="s">
         <v>952</v>
@@ -15049,7 +15046,7 @@
         <v>1258</v>
       </c>
       <c r="J306" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K306" t="s">
         <v>952</v>
@@ -15084,7 +15081,7 @@
         <v>1258</v>
       </c>
       <c r="J307" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K307" t="s">
         <v>952</v>
@@ -15119,7 +15116,7 @@
         <v>1258</v>
       </c>
       <c r="J308" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K308" t="s">
         <v>952</v>
@@ -15154,7 +15151,7 @@
         <v>1258</v>
       </c>
       <c r="J309" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K309" t="s">
         <v>952</v>
@@ -15189,7 +15186,7 @@
         <v>1258</v>
       </c>
       <c r="J310" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K310" t="s">
         <v>952</v>
@@ -15224,7 +15221,7 @@
         <v>1258</v>
       </c>
       <c r="J311" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K311" t="s">
         <v>952</v>
@@ -15259,7 +15256,7 @@
         <v>1258</v>
       </c>
       <c r="J312" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K312" t="s">
         <v>952</v>
@@ -15294,7 +15291,7 @@
         <v>1258</v>
       </c>
       <c r="J313" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K313" t="s">
         <v>952</v>
@@ -15329,7 +15326,7 @@
         <v>1258</v>
       </c>
       <c r="J314" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K314" t="s">
         <v>952</v>
@@ -15364,7 +15361,7 @@
         <v>1258</v>
       </c>
       <c r="J315" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K315" t="s">
         <v>952</v>
@@ -15399,7 +15396,7 @@
         <v>1258</v>
       </c>
       <c r="J316" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K316" t="s">
         <v>952</v>
@@ -15434,7 +15431,7 @@
         <v>1258</v>
       </c>
       <c r="J317" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K317" t="s">
         <v>952</v>
@@ -15469,7 +15466,7 @@
         <v>1258</v>
       </c>
       <c r="J318" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K318" t="s">
         <v>952</v>
@@ -15504,7 +15501,7 @@
         <v>1258</v>
       </c>
       <c r="J319" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K319" t="s">
         <v>952</v>
@@ -15539,7 +15536,7 @@
         <v>1258</v>
       </c>
       <c r="J320" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K320" t="s">
         <v>952</v>
@@ -15574,7 +15571,7 @@
         <v>1258</v>
       </c>
       <c r="J321" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K321" t="s">
         <v>952</v>
@@ -15609,7 +15606,7 @@
         <v>1258</v>
       </c>
       <c r="J322" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K322" t="s">
         <v>952</v>
@@ -15644,7 +15641,7 @@
         <v>1258</v>
       </c>
       <c r="J323" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K323" t="s">
         <v>952</v>
@@ -15679,7 +15676,7 @@
         <v>1258</v>
       </c>
       <c r="J324" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K324" t="s">
         <v>952</v>
@@ -15714,7 +15711,7 @@
         <v>1258</v>
       </c>
       <c r="J325" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K325" t="s">
         <v>952</v>
@@ -15749,7 +15746,7 @@
         <v>1258</v>
       </c>
       <c r="J326" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K326" t="s">
         <v>952</v>
@@ -15784,7 +15781,7 @@
         <v>1258</v>
       </c>
       <c r="J327" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K327" t="s">
         <v>952</v>
@@ -15819,7 +15816,7 @@
         <v>1258</v>
       </c>
       <c r="J328" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K328" t="s">
         <v>952</v>
@@ -15854,7 +15851,7 @@
         <v>1258</v>
       </c>
       <c r="J329" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K329" t="s">
         <v>952</v>
@@ -15889,7 +15886,7 @@
         <v>1258</v>
       </c>
       <c r="J330" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K330" t="s">
         <v>952</v>
@@ -15924,7 +15921,7 @@
         <v>1258</v>
       </c>
       <c r="J331" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K331" t="s">
         <v>952</v>
@@ -15959,7 +15956,7 @@
         <v>1258</v>
       </c>
       <c r="J332" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K332" t="s">
         <v>952</v>
@@ -15994,7 +15991,7 @@
         <v>1258</v>
       </c>
       <c r="J333" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K333" t="s">
         <v>952</v>
@@ -16029,7 +16026,7 @@
         <v>1258</v>
       </c>
       <c r="J334" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K334" t="s">
         <v>952</v>
@@ -16064,7 +16061,7 @@
         <v>1258</v>
       </c>
       <c r="J335" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K335" t="s">
         <v>952</v>
@@ -16099,7 +16096,7 @@
         <v>1258</v>
       </c>
       <c r="J336" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K336" t="s">
         <v>952</v>
@@ -16134,7 +16131,7 @@
         <v>1258</v>
       </c>
       <c r="J337" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K337" t="s">
         <v>952</v>
@@ -16169,7 +16166,7 @@
         <v>1258</v>
       </c>
       <c r="J338" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K338" t="s">
         <v>952</v>
@@ -16204,7 +16201,7 @@
         <v>1258</v>
       </c>
       <c r="J339" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K339" t="s">
         <v>952</v>
@@ -16239,7 +16236,7 @@
         <v>1258</v>
       </c>
       <c r="J340" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K340" t="s">
         <v>952</v>
@@ -16274,7 +16271,7 @@
         <v>1258</v>
       </c>
       <c r="J341" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K341" t="s">
         <v>952</v>
@@ -16309,7 +16306,7 @@
         <v>1258</v>
       </c>
       <c r="J342" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K342" t="s">
         <v>952</v>
@@ -16344,7 +16341,7 @@
         <v>1258</v>
       </c>
       <c r="J343" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K343" t="s">
         <v>952</v>
@@ -16379,7 +16376,7 @@
         <v>1258</v>
       </c>
       <c r="J344" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K344" t="s">
         <v>952</v>
@@ -16414,7 +16411,7 @@
         <v>1258</v>
       </c>
       <c r="J345" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K345" t="s">
         <v>952</v>
@@ -16449,7 +16446,7 @@
         <v>1258</v>
       </c>
       <c r="J346" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K346" t="s">
         <v>952</v>
@@ -16484,7 +16481,7 @@
         <v>1258</v>
       </c>
       <c r="J347" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K347" t="s">
         <v>952</v>
@@ -16507,19 +16504,19 @@
         <v>1095</v>
       </c>
       <c r="H348" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I348" t="s">
         <v>1259</v>
       </c>
       <c r="J348" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K348" t="s">
         <v>1096</v>
       </c>
       <c r="L348" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
@@ -16542,19 +16539,19 @@
         <v>1095</v>
       </c>
       <c r="H349" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I349" t="s">
         <v>1259</v>
       </c>
       <c r="J349" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K349" t="s">
         <v>1096</v>
       </c>
       <c r="L349" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
@@ -16571,19 +16568,19 @@
         <v>1095</v>
       </c>
       <c r="H350" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I350" t="s">
         <v>1259</v>
       </c>
       <c r="J350" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K350" t="s">
         <v>1096</v>
       </c>
       <c r="L350" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
@@ -16600,19 +16597,19 @@
         <v>1095</v>
       </c>
       <c r="H351" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I351" t="s">
         <v>1259</v>
       </c>
       <c r="J351" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K351" t="s">
         <v>1096</v>
       </c>
       <c r="L351" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
@@ -16629,19 +16626,19 @@
         <v>1095</v>
       </c>
       <c r="H352" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I352" t="s">
         <v>1259</v>
       </c>
       <c r="J352" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K352" t="s">
         <v>1096</v>
       </c>
       <c r="L352" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.2">
@@ -16658,19 +16655,19 @@
         <v>1095</v>
       </c>
       <c r="H353" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I353" t="s">
         <v>1259</v>
       </c>
       <c r="J353" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K353" t="s">
         <v>1096</v>
       </c>
       <c r="L353" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.2">
@@ -16687,19 +16684,19 @@
         <v>1095</v>
       </c>
       <c r="H354" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I354" t="s">
         <v>1259</v>
       </c>
       <c r="J354" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K354" t="s">
         <v>1096</v>
       </c>
       <c r="L354" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.2">
@@ -16716,19 +16713,19 @@
         <v>1095</v>
       </c>
       <c r="H355" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I355" t="s">
         <v>1259</v>
       </c>
       <c r="J355" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K355" t="s">
         <v>1096</v>
       </c>
       <c r="L355" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.2">
@@ -16745,19 +16742,19 @@
         <v>1095</v>
       </c>
       <c r="H356" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I356" t="s">
         <v>1259</v>
       </c>
       <c r="J356" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K356" t="s">
         <v>1096</v>
       </c>
       <c r="L356" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.2">
@@ -16774,19 +16771,19 @@
         <v>1095</v>
       </c>
       <c r="H357" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I357" t="s">
         <v>1259</v>
       </c>
       <c r="J357" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K357" t="s">
         <v>1096</v>
       </c>
       <c r="L357" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.2">
@@ -16803,19 +16800,19 @@
         <v>1095</v>
       </c>
       <c r="H358" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I358" t="s">
         <v>1259</v>
       </c>
       <c r="J358" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K358" t="s">
         <v>1096</v>
       </c>
       <c r="L358" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.2">
@@ -16832,19 +16829,19 @@
         <v>1095</v>
       </c>
       <c r="H359" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I359" t="s">
         <v>1259</v>
       </c>
       <c r="J359" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K359" t="s">
         <v>1096</v>
       </c>
       <c r="L359" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.2">
@@ -16861,19 +16858,19 @@
         <v>1095</v>
       </c>
       <c r="H360" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I360" t="s">
         <v>1259</v>
       </c>
       <c r="J360" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K360" t="s">
         <v>1096</v>
       </c>
       <c r="L360" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.2">
@@ -16890,19 +16887,19 @@
         <v>1095</v>
       </c>
       <c r="H361" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I361" t="s">
         <v>1259</v>
       </c>
       <c r="J361" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K361" t="s">
         <v>1096</v>
       </c>
       <c r="L361" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.2">
@@ -16919,19 +16916,19 @@
         <v>1095</v>
       </c>
       <c r="H362" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I362" t="s">
         <v>1259</v>
       </c>
       <c r="J362" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K362" t="s">
         <v>1096</v>
       </c>
       <c r="L362" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.2">
@@ -16948,19 +16945,19 @@
         <v>1095</v>
       </c>
       <c r="H363" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I363" t="s">
         <v>1259</v>
       </c>
       <c r="J363" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K363" t="s">
         <v>1096</v>
       </c>
       <c r="L363" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.2">
@@ -16977,19 +16974,19 @@
         <v>1095</v>
       </c>
       <c r="H364" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I364" t="s">
         <v>1259</v>
       </c>
       <c r="J364" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K364" t="s">
         <v>1096</v>
       </c>
       <c r="L364" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.2">
@@ -17006,19 +17003,19 @@
         <v>1095</v>
       </c>
       <c r="H365" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I365" t="s">
         <v>1259</v>
       </c>
       <c r="J365" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K365" t="s">
         <v>1096</v>
       </c>
       <c r="L365" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.2">
@@ -17035,19 +17032,19 @@
         <v>1095</v>
       </c>
       <c r="H366" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I366" t="s">
         <v>1259</v>
       </c>
       <c r="J366" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K366" t="s">
         <v>1096</v>
       </c>
       <c r="L366" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.2">
@@ -17064,19 +17061,19 @@
         <v>1095</v>
       </c>
       <c r="H367" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I367" t="s">
         <v>1259</v>
       </c>
       <c r="J367" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K367" t="s">
         <v>1096</v>
       </c>
       <c r="L367" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.2">
@@ -17093,19 +17090,19 @@
         <v>1095</v>
       </c>
       <c r="H368" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I368" t="s">
         <v>1259</v>
       </c>
       <c r="J368" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K368" t="s">
         <v>1096</v>
       </c>
       <c r="L368" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.2">
@@ -17122,19 +17119,19 @@
         <v>1095</v>
       </c>
       <c r="H369" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I369" t="s">
         <v>1259</v>
       </c>
       <c r="J369" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K369" t="s">
         <v>1096</v>
       </c>
       <c r="L369" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.2">
@@ -17151,19 +17148,19 @@
         <v>1095</v>
       </c>
       <c r="H370" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I370" t="s">
         <v>1259</v>
       </c>
       <c r="J370" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K370" t="s">
         <v>1096</v>
       </c>
       <c r="L370" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.2">
@@ -17180,19 +17177,19 @@
         <v>1095</v>
       </c>
       <c r="H371" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I371" t="s">
         <v>1259</v>
       </c>
       <c r="J371" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K371" t="s">
         <v>1096</v>
       </c>
       <c r="L371" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.2">
@@ -17203,25 +17200,25 @@
         <v>1121</v>
       </c>
       <c r="F372" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="G372" t="s">
         <v>1095</v>
       </c>
       <c r="H372" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I372" t="s">
         <v>1259</v>
       </c>
       <c r="J372" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K372" t="s">
         <v>1096</v>
       </c>
       <c r="L372" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.2">
@@ -17238,19 +17235,19 @@
         <v>1095</v>
       </c>
       <c r="H373" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I373" t="s">
         <v>1259</v>
       </c>
       <c r="J373" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K373" t="s">
         <v>1096</v>
       </c>
       <c r="L373" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.2">
@@ -17267,19 +17264,19 @@
         <v>1095</v>
       </c>
       <c r="H374" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I374" t="s">
         <v>1259</v>
       </c>
       <c r="J374" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K374" t="s">
         <v>1096</v>
       </c>
       <c r="L374" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.2">
@@ -17302,19 +17299,19 @@
         <v>1095</v>
       </c>
       <c r="H375" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I375" t="s">
         <v>1259</v>
       </c>
       <c r="J375" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K375" t="s">
         <v>1096</v>
       </c>
       <c r="L375" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.2">
@@ -17340,19 +17337,19 @@
         <v>1095</v>
       </c>
       <c r="H376" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I376" t="s">
         <v>1259</v>
       </c>
       <c r="J376" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K376" t="s">
         <v>1096</v>
       </c>
       <c r="L376" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.2">
@@ -17378,19 +17375,19 @@
         <v>1095</v>
       </c>
       <c r="H377" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I377" t="s">
         <v>1259</v>
       </c>
       <c r="J377" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K377" t="s">
         <v>1096</v>
       </c>
       <c r="L377" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.2">
@@ -17407,19 +17404,19 @@
         <v>1095</v>
       </c>
       <c r="H378" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I378" t="s">
         <v>1259</v>
       </c>
       <c r="J378" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K378" t="s">
         <v>1096</v>
       </c>
       <c r="L378" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.2">
@@ -17442,19 +17439,19 @@
         <v>1095</v>
       </c>
       <c r="H379" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I379" t="s">
         <v>1259</v>
       </c>
       <c r="J379" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K379" t="s">
         <v>1096</v>
       </c>
       <c r="L379" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.2">
@@ -17471,19 +17468,19 @@
         <v>1095</v>
       </c>
       <c r="H380" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I380" t="s">
         <v>1259</v>
       </c>
       <c r="J380" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K380" t="s">
         <v>1096</v>
       </c>
       <c r="L380" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.2">
@@ -17506,19 +17503,19 @@
         <v>1095</v>
       </c>
       <c r="H381" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I381" t="s">
         <v>1259</v>
       </c>
       <c r="J381" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K381" t="s">
         <v>1096</v>
       </c>
       <c r="L381" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.2">
@@ -17535,19 +17532,19 @@
         <v>1095</v>
       </c>
       <c r="H382" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I382" t="s">
         <v>1259</v>
       </c>
       <c r="J382" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K382" t="s">
         <v>1096</v>
       </c>
       <c r="L382" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.2">
@@ -17564,19 +17561,19 @@
         <v>1095</v>
       </c>
       <c r="H383" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I383" t="s">
         <v>1259</v>
       </c>
       <c r="J383" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K383" t="s">
         <v>1096</v>
       </c>
       <c r="L383" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.2">
@@ -17593,19 +17590,19 @@
         <v>1095</v>
       </c>
       <c r="H384" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I384" t="s">
         <v>1259</v>
       </c>
       <c r="J384" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K384" t="s">
         <v>1096</v>
       </c>
       <c r="L384" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.2">
@@ -17622,19 +17619,19 @@
         <v>1095</v>
       </c>
       <c r="H385" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I385" t="s">
         <v>1259</v>
       </c>
       <c r="J385" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K385" t="s">
         <v>1096</v>
       </c>
       <c r="L385" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.2">
@@ -17651,19 +17648,19 @@
         <v>1095</v>
       </c>
       <c r="H386" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I386" t="s">
         <v>1259</v>
       </c>
       <c r="J386" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K386" t="s">
         <v>1096</v>
       </c>
       <c r="L386" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.2">
@@ -17680,19 +17677,19 @@
         <v>1095</v>
       </c>
       <c r="H387" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I387" t="s">
         <v>1259</v>
       </c>
       <c r="J387" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K387" t="s">
         <v>1096</v>
       </c>
       <c r="L387" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.2">
@@ -17709,19 +17706,19 @@
         <v>1095</v>
       </c>
       <c r="H388" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I388" t="s">
         <v>1259</v>
       </c>
       <c r="J388" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K388" t="s">
         <v>1096</v>
       </c>
       <c r="L388" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.2">
@@ -17738,19 +17735,19 @@
         <v>1095</v>
       </c>
       <c r="H389" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I389" t="s">
         <v>1259</v>
       </c>
       <c r="J389" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K389" t="s">
         <v>1096</v>
       </c>
       <c r="L389" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.2">
@@ -17761,25 +17758,25 @@
         <v>1140</v>
       </c>
       <c r="F390" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="G390" t="s">
         <v>1095</v>
       </c>
       <c r="H390" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I390" t="s">
         <v>1259</v>
       </c>
       <c r="J390" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K390" t="s">
         <v>1096</v>
       </c>
       <c r="L390" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.2">
@@ -17796,19 +17793,19 @@
         <v>1095</v>
       </c>
       <c r="H391" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I391" t="s">
         <v>1259</v>
       </c>
       <c r="J391" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K391" t="s">
         <v>1096</v>
       </c>
       <c r="L391" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.2">
@@ -17825,19 +17822,19 @@
         <v>1095</v>
       </c>
       <c r="H392" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I392" t="s">
         <v>1259</v>
       </c>
       <c r="J392" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K392" t="s">
         <v>1096</v>
       </c>
       <c r="L392" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.2">
@@ -17860,19 +17857,19 @@
         <v>1145</v>
       </c>
       <c r="H393" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I393" t="s">
         <v>1259</v>
       </c>
       <c r="J393" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K393" t="s">
         <v>1096</v>
       </c>
       <c r="L393" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.2">
@@ -17895,19 +17892,19 @@
         <v>1145</v>
       </c>
       <c r="H394" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I394" t="s">
         <v>1259</v>
       </c>
       <c r="J394" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K394" t="s">
         <v>1096</v>
       </c>
       <c r="L394" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.2">
@@ -17930,19 +17927,19 @@
         <v>1145</v>
       </c>
       <c r="H395" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I395" t="s">
         <v>1259</v>
       </c>
       <c r="J395" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K395" t="s">
         <v>1096</v>
       </c>
       <c r="L395" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.2">
@@ -17965,19 +17962,19 @@
         <v>1145</v>
       </c>
       <c r="H396" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I396" t="s">
         <v>1259</v>
       </c>
       <c r="J396" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K396" t="s">
         <v>1096</v>
       </c>
       <c r="L396" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.2">
@@ -18000,19 +17997,19 @@
         <v>1145</v>
       </c>
       <c r="H397" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I397" t="s">
         <v>1259</v>
       </c>
       <c r="J397" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K397" t="s">
         <v>1096</v>
       </c>
       <c r="L397" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.2">
@@ -18035,19 +18032,19 @@
         <v>1145</v>
       </c>
       <c r="H398" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I398" t="s">
         <v>1259</v>
       </c>
       <c r="J398" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K398" t="s">
         <v>1096</v>
       </c>
       <c r="L398" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.2">
@@ -18070,19 +18067,19 @@
         <v>1145</v>
       </c>
       <c r="H399" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I399" t="s">
         <v>1259</v>
       </c>
       <c r="J399" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K399" t="s">
         <v>1096</v>
       </c>
       <c r="L399" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.2">
@@ -18105,19 +18102,19 @@
         <v>1145</v>
       </c>
       <c r="H400" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I400" t="s">
         <v>1259</v>
       </c>
       <c r="J400" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K400" t="s">
         <v>1096</v>
       </c>
       <c r="L400" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.2">
@@ -18140,19 +18137,19 @@
         <v>1145</v>
       </c>
       <c r="H401" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I401" t="s">
         <v>1259</v>
       </c>
       <c r="J401" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K401" t="s">
         <v>1096</v>
       </c>
       <c r="L401" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.2">
@@ -18175,19 +18172,19 @@
         <v>1145</v>
       </c>
       <c r="H402" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I402" t="s">
         <v>1259</v>
       </c>
       <c r="J402" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K402" t="s">
         <v>1096</v>
       </c>
       <c r="L402" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.2">
@@ -18210,19 +18207,19 @@
         <v>1145</v>
       </c>
       <c r="H403" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I403" t="s">
         <v>1259</v>
       </c>
       <c r="J403" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K403" t="s">
         <v>1096</v>
       </c>
       <c r="L403" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.2">
@@ -18245,19 +18242,19 @@
         <v>1145</v>
       </c>
       <c r="H404" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I404" t="s">
         <v>1259</v>
       </c>
       <c r="J404" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K404" t="s">
         <v>1096</v>
       </c>
       <c r="L404" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.2">
@@ -18280,19 +18277,19 @@
         <v>1145</v>
       </c>
       <c r="H405" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I405" t="s">
         <v>1259</v>
       </c>
       <c r="J405" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K405" t="s">
         <v>1096</v>
       </c>
       <c r="L405" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.2">
@@ -18315,19 +18312,19 @@
         <v>1145</v>
       </c>
       <c r="H406" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I406" t="s">
         <v>1259</v>
       </c>
       <c r="J406" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K406" t="s">
         <v>1096</v>
       </c>
       <c r="L406" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.2">
@@ -18350,19 +18347,19 @@
         <v>1145</v>
       </c>
       <c r="H407" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I407" t="s">
         <v>1259</v>
       </c>
       <c r="J407" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K407" t="s">
         <v>1096</v>
       </c>
       <c r="L407" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.2">
@@ -18385,19 +18382,19 @@
         <v>1145</v>
       </c>
       <c r="H408" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I408" t="s">
         <v>1259</v>
       </c>
       <c r="J408" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K408" t="s">
         <v>1096</v>
       </c>
       <c r="L408" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.2">
@@ -18420,19 +18417,19 @@
         <v>1145</v>
       </c>
       <c r="H409" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I409" t="s">
         <v>1259</v>
       </c>
       <c r="J409" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K409" t="s">
         <v>1096</v>
       </c>
       <c r="L409" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.2">
@@ -18455,19 +18452,19 @@
         <v>1145</v>
       </c>
       <c r="H410" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I410" t="s">
         <v>1259</v>
       </c>
       <c r="J410" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K410" t="s">
         <v>1096</v>
       </c>
       <c r="L410" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.2">
@@ -18490,19 +18487,19 @@
         <v>1145</v>
       </c>
       <c r="H411" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I411" t="s">
         <v>1259</v>
       </c>
       <c r="J411" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K411" t="s">
         <v>1096</v>
       </c>
       <c r="L411" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.2">
@@ -18525,19 +18522,19 @@
         <v>1145</v>
       </c>
       <c r="H412" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I412" t="s">
         <v>1259</v>
       </c>
       <c r="J412" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K412" t="s">
         <v>1096</v>
       </c>
       <c r="L412" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.2">
@@ -18560,19 +18557,19 @@
         <v>1145</v>
       </c>
       <c r="H413" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I413" t="s">
         <v>1259</v>
       </c>
       <c r="J413" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K413" t="s">
         <v>1096</v>
       </c>
       <c r="L413" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.2">
@@ -18595,19 +18592,19 @@
         <v>1145</v>
       </c>
       <c r="H414" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I414" t="s">
         <v>1259</v>
       </c>
       <c r="J414" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K414" t="s">
         <v>1096</v>
       </c>
       <c r="L414" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.2">
@@ -18630,19 +18627,19 @@
         <v>1145</v>
       </c>
       <c r="H415" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I415" t="s">
         <v>1259</v>
       </c>
       <c r="J415" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K415" t="s">
         <v>1096</v>
       </c>
       <c r="L415" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.2">
@@ -18665,19 +18662,19 @@
         <v>1145</v>
       </c>
       <c r="H416" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I416" t="s">
         <v>1259</v>
       </c>
       <c r="J416" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K416" t="s">
         <v>1096</v>
       </c>
       <c r="L416" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.2">
@@ -18700,19 +18697,19 @@
         <v>1145</v>
       </c>
       <c r="H417" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I417" t="s">
         <v>1259</v>
       </c>
       <c r="J417" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K417" t="s">
         <v>1096</v>
       </c>
       <c r="L417" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.2">
@@ -18735,19 +18732,19 @@
         <v>1145</v>
       </c>
       <c r="H418" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I418" t="s">
         <v>1259</v>
       </c>
       <c r="J418" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K418" t="s">
         <v>1096</v>
       </c>
       <c r="L418" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.2">
@@ -18770,19 +18767,19 @@
         <v>1192</v>
       </c>
       <c r="H419" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I419" t="s">
         <v>1259</v>
       </c>
       <c r="J419" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K419" t="s">
         <v>1096</v>
       </c>
       <c r="L419" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.2">
@@ -18805,19 +18802,19 @@
         <v>1192</v>
       </c>
       <c r="H420" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I420" t="s">
         <v>1259</v>
       </c>
       <c r="J420" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K420" t="s">
         <v>1096</v>
       </c>
       <c r="L420" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.2">
@@ -18840,19 +18837,19 @@
         <v>1192</v>
       </c>
       <c r="H421" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I421" t="s">
         <v>1259</v>
       </c>
       <c r="J421" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K421" t="s">
         <v>1096</v>
       </c>
       <c r="L421" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.2">
@@ -18875,19 +18872,19 @@
         <v>1192</v>
       </c>
       <c r="H422" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I422" t="s">
         <v>1259</v>
       </c>
       <c r="J422" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K422" t="s">
         <v>1096</v>
       </c>
       <c r="L422" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.2">
@@ -18910,19 +18907,19 @@
         <v>1192</v>
       </c>
       <c r="H423" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I423" t="s">
         <v>1259</v>
       </c>
       <c r="J423" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K423" t="s">
         <v>1096</v>
       </c>
       <c r="L423" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.2">
@@ -18945,19 +18942,19 @@
         <v>1192</v>
       </c>
       <c r="H424" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I424" t="s">
         <v>1259</v>
       </c>
       <c r="J424" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K424" t="s">
         <v>1096</v>
       </c>
       <c r="L424" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.2">
@@ -18980,19 +18977,19 @@
         <v>1192</v>
       </c>
       <c r="H425" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I425" t="s">
         <v>1259</v>
       </c>
       <c r="J425" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K425" t="s">
         <v>1096</v>
       </c>
       <c r="L425" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.2">
@@ -19015,19 +19012,19 @@
         <v>1192</v>
       </c>
       <c r="H426" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I426" t="s">
         <v>1259</v>
       </c>
       <c r="J426" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K426" t="s">
         <v>1096</v>
       </c>
       <c r="L426" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.2">
@@ -19050,19 +19047,19 @@
         <v>1192</v>
       </c>
       <c r="H427" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I427" t="s">
         <v>1259</v>
       </c>
       <c r="J427" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K427" t="s">
         <v>1096</v>
       </c>
       <c r="L427" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.2">
@@ -19085,19 +19082,19 @@
         <v>1192</v>
       </c>
       <c r="H428" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I428" t="s">
         <v>1259</v>
       </c>
       <c r="J428" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K428" t="s">
         <v>1096</v>
       </c>
       <c r="L428" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.2">
@@ -19120,19 +19117,19 @@
         <v>1192</v>
       </c>
       <c r="H429" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I429" t="s">
         <v>1259</v>
       </c>
       <c r="J429" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K429" t="s">
         <v>1096</v>
       </c>
       <c r="L429" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.2">
@@ -19155,19 +19152,19 @@
         <v>1192</v>
       </c>
       <c r="H430" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I430" t="s">
         <v>1259</v>
       </c>
       <c r="J430" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K430" t="s">
         <v>1096</v>
       </c>
       <c r="L430" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.2">
@@ -19190,19 +19187,19 @@
         <v>1192</v>
       </c>
       <c r="H431" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I431" t="s">
         <v>1259</v>
       </c>
       <c r="J431" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K431" t="s">
         <v>1096</v>
       </c>
       <c r="L431" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.2">
@@ -19225,19 +19222,19 @@
         <v>1192</v>
       </c>
       <c r="H432" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I432" t="s">
         <v>1259</v>
       </c>
       <c r="J432" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K432" t="s">
         <v>1096</v>
       </c>
       <c r="L432" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.2">
@@ -19260,19 +19257,19 @@
         <v>1192</v>
       </c>
       <c r="H433" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I433" t="s">
         <v>1259</v>
       </c>
       <c r="J433" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K433" t="s">
         <v>1096</v>
       </c>
       <c r="L433" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.2">
@@ -19295,19 +19292,19 @@
         <v>1192</v>
       </c>
       <c r="H434" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I434" t="s">
         <v>1259</v>
       </c>
       <c r="J434" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K434" t="s">
         <v>1096</v>
       </c>
       <c r="L434" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.2">
@@ -19330,19 +19327,19 @@
         <v>1192</v>
       </c>
       <c r="H435" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I435" t="s">
         <v>1259</v>
       </c>
       <c r="J435" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K435" t="s">
         <v>1096</v>
       </c>
       <c r="L435" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.2">
@@ -19365,19 +19362,19 @@
         <v>1192</v>
       </c>
       <c r="H436" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I436" t="s">
         <v>1259</v>
       </c>
       <c r="J436" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K436" t="s">
         <v>1096</v>
       </c>
       <c r="L436" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.2">
@@ -19400,19 +19397,19 @@
         <v>1192</v>
       </c>
       <c r="H437" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I437" t="s">
         <v>1259</v>
       </c>
       <c r="J437" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K437" t="s">
         <v>1096</v>
       </c>
       <c r="L437" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.2">
@@ -19429,13 +19426,13 @@
         <v>1228</v>
       </c>
       <c r="H438" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I438" t="s">
         <v>1258</v>
       </c>
       <c r="J438" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K438" t="s">
         <v>952</v>
@@ -19464,13 +19461,13 @@
         <v>1228</v>
       </c>
       <c r="H439" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I439" t="s">
         <v>1258</v>
       </c>
       <c r="J439" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K439" t="s">
         <v>952</v>
@@ -19499,13 +19496,13 @@
         <v>1228</v>
       </c>
       <c r="H440" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I440" t="s">
         <v>1258</v>
       </c>
       <c r="J440" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K440" t="s">
         <v>952</v>
@@ -19534,13 +19531,13 @@
         <v>1228</v>
       </c>
       <c r="H441" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I441" t="s">
         <v>1258</v>
       </c>
       <c r="J441" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K441" t="s">
         <v>952</v>
@@ -19572,13 +19569,13 @@
         <v>1228</v>
       </c>
       <c r="H442" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I442" t="s">
         <v>1258</v>
       </c>
       <c r="J442" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K442" t="s">
         <v>952</v>
@@ -19610,13 +19607,13 @@
         <v>1228</v>
       </c>
       <c r="H443" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I443" t="s">
         <v>1258</v>
       </c>
       <c r="J443" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K443" t="s">
         <v>952</v>
@@ -19648,13 +19645,13 @@
         <v>1228</v>
       </c>
       <c r="H444" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I444" t="s">
         <v>1258</v>
       </c>
       <c r="J444" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K444" t="s">
         <v>952</v>
@@ -19683,13 +19680,13 @@
         <v>1228</v>
       </c>
       <c r="H445" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I445" t="s">
         <v>1258</v>
       </c>
       <c r="J445" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K445" t="s">
         <v>952</v>
@@ -19712,13 +19709,13 @@
         <v>1228</v>
       </c>
       <c r="H446" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I446" t="s">
         <v>1258</v>
       </c>
       <c r="J446" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K446" t="s">
         <v>952</v>
@@ -19747,13 +19744,13 @@
         <v>1228</v>
       </c>
       <c r="H447" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I447" t="s">
         <v>1258</v>
       </c>
       <c r="J447" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K447" t="s">
         <v>952</v>
@@ -19782,13 +19779,13 @@
         <v>1228</v>
       </c>
       <c r="H448" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I448" t="s">
         <v>1258</v>
       </c>
       <c r="J448" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K448" t="s">
         <v>952</v>
@@ -19817,13 +19814,13 @@
         <v>1228</v>
       </c>
       <c r="H449" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I449" t="s">
         <v>1258</v>
       </c>
       <c r="J449" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K449" t="s">
         <v>952</v>
@@ -19852,13 +19849,13 @@
         <v>1228</v>
       </c>
       <c r="H450" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I450" t="s">
         <v>1258</v>
       </c>
       <c r="J450" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K450" t="s">
         <v>952</v>
@@ -19887,13 +19884,13 @@
         <v>1228</v>
       </c>
       <c r="H451" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I451" t="s">
         <v>1258</v>
       </c>
       <c r="J451" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K451" t="s">
         <v>952</v>
@@ -19916,13 +19913,13 @@
         <v>1228</v>
       </c>
       <c r="H452" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I452" t="s">
         <v>1258</v>
       </c>
       <c r="J452" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K452" t="s">
         <v>952</v>
@@ -19945,13 +19942,13 @@
         <v>1228</v>
       </c>
       <c r="H453" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I453" t="s">
         <v>1258</v>
       </c>
       <c r="J453" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K453" t="s">
         <v>952</v>
@@ -19974,13 +19971,13 @@
         <v>1228</v>
       </c>
       <c r="H454" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I454" t="s">
         <v>1258</v>
       </c>
       <c r="J454" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K454" t="s">
         <v>952</v>
@@ -20009,13 +20006,13 @@
         <v>1228</v>
       </c>
       <c r="H455" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I455" t="s">
         <v>1258</v>
       </c>
       <c r="J455" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K455" t="s">
         <v>952</v>
@@ -20044,13 +20041,13 @@
         <v>1228</v>
       </c>
       <c r="H456" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I456" t="s">
         <v>1258</v>
       </c>
       <c r="J456" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K456" t="s">
         <v>952</v>
@@ -20073,13 +20070,13 @@
         <v>1228</v>
       </c>
       <c r="H457" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I457" t="s">
         <v>1258</v>
       </c>
       <c r="J457" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K457" t="s">
         <v>952</v>
@@ -20102,13 +20099,13 @@
         <v>1228</v>
       </c>
       <c r="H458" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I458" t="s">
         <v>1258</v>
       </c>
       <c r="J458" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K458" t="s">
         <v>952</v>
@@ -20131,13 +20128,13 @@
         <v>1228</v>
       </c>
       <c r="H459" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I459" t="s">
         <v>1258</v>
       </c>
       <c r="J459" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K459" t="s">
         <v>952</v>
@@ -20160,13 +20157,13 @@
         <v>1228</v>
       </c>
       <c r="H460" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I460" t="s">
         <v>1258</v>
       </c>
       <c r="J460" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K460" t="s">
         <v>952</v>
@@ -20189,13 +20186,13 @@
         <v>1228</v>
       </c>
       <c r="H461" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I461" t="s">
         <v>1258</v>
       </c>
       <c r="J461" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K461" t="s">
         <v>952</v>
@@ -20224,13 +20221,13 @@
         <v>1228</v>
       </c>
       <c r="H462" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I462" t="s">
         <v>1258</v>
       </c>
       <c r="J462" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K462" t="s">
         <v>952</v>
@@ -20253,13 +20250,13 @@
         <v>1228</v>
       </c>
       <c r="H463" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I463" t="s">
         <v>1258</v>
       </c>
       <c r="J463" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K463" t="s">
         <v>952</v>
@@ -20282,13 +20279,13 @@
         <v>1228</v>
       </c>
       <c r="H464" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I464" t="s">
         <v>1258</v>
       </c>
       <c r="J464" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K464" t="s">
         <v>952</v>
@@ -20311,13 +20308,13 @@
         <v>1228</v>
       </c>
       <c r="H465" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I465" t="s">
         <v>1258</v>
       </c>
       <c r="J465" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K465" t="s">
         <v>952</v>
@@ -20340,13 +20337,13 @@
         <v>1228</v>
       </c>
       <c r="H466" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I466" t="s">
         <v>1258</v>
       </c>
       <c r="J466" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K466" t="s">
         <v>952</v>
@@ -20369,13 +20366,13 @@
         <v>1228</v>
       </c>
       <c r="H467" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I467" t="s">
         <v>1258</v>
       </c>
       <c r="J467" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K467" t="s">
         <v>952</v>
@@ -20398,13 +20395,13 @@
         <v>1228</v>
       </c>
       <c r="H468" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I468" t="s">
         <v>1258</v>
       </c>
       <c r="J468" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K468" t="s">
         <v>952</v>
@@ -20427,13 +20424,13 @@
         <v>1228</v>
       </c>
       <c r="H469" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I469" t="s">
         <v>1258</v>
       </c>
       <c r="J469" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K469" t="s">
         <v>952</v>
@@ -20456,13 +20453,13 @@
         <v>1228</v>
       </c>
       <c r="H470" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I470" t="s">
         <v>1258</v>
       </c>
       <c r="J470" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K470" t="s">
         <v>952</v>
@@ -20491,13 +20488,13 @@
         <v>1228</v>
       </c>
       <c r="H471" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I471" t="s">
         <v>1258</v>
       </c>
       <c r="J471" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K471" t="s">
         <v>952</v>
@@ -20526,13 +20523,13 @@
         <v>1228</v>
       </c>
       <c r="H472" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I472" t="s">
         <v>1258</v>
       </c>
       <c r="J472" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K472" t="s">
         <v>952</v>
@@ -20555,13 +20552,13 @@
         <v>1228</v>
       </c>
       <c r="H473" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I473" t="s">
         <v>1258</v>
       </c>
       <c r="J473" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K473" t="s">
         <v>952</v>
@@ -20584,13 +20581,13 @@
         <v>1228</v>
       </c>
       <c r="H474" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I474" t="s">
         <v>1258</v>
       </c>
       <c r="J474" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K474" t="s">
         <v>952</v>
@@ -20607,19 +20604,19 @@
         <v>1073</v>
       </c>
       <c r="F475" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="G475" t="s">
         <v>1228</v>
       </c>
       <c r="H475" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I475" t="s">
         <v>1258</v>
       </c>
       <c r="J475" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K475" t="s">
         <v>952</v>
@@ -20642,13 +20639,13 @@
         <v>1228</v>
       </c>
       <c r="H476" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I476" t="s">
         <v>1258</v>
       </c>
       <c r="J476" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K476" t="s">
         <v>952</v>
@@ -20671,13 +20668,13 @@
         <v>1228</v>
       </c>
       <c r="H477" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I477" t="s">
         <v>1258</v>
       </c>
       <c r="J477" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K477" t="s">
         <v>952</v>
@@ -20700,13 +20697,13 @@
         <v>1228</v>
       </c>
       <c r="H478" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I478" t="s">
         <v>1258</v>
       </c>
       <c r="J478" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K478" t="s">
         <v>952</v>
@@ -20729,13 +20726,13 @@
         <v>1228</v>
       </c>
       <c r="H479" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I479" t="s">
         <v>1258</v>
       </c>
       <c r="J479" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K479" t="s">
         <v>952</v>
@@ -20764,13 +20761,13 @@
         <v>1228</v>
       </c>
       <c r="H480" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I480" t="s">
         <v>1258</v>
       </c>
       <c r="J480" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K480" t="s">
         <v>952</v>
@@ -20793,13 +20790,13 @@
         <v>1228</v>
       </c>
       <c r="H481" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I481" t="s">
         <v>1258</v>
       </c>
       <c r="J481" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K481" t="s">
         <v>952</v>
@@ -20828,13 +20825,13 @@
         <v>1228</v>
       </c>
       <c r="H482" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I482" t="s">
         <v>1258</v>
       </c>
       <c r="J482" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K482" t="s">
         <v>952</v>
@@ -20863,13 +20860,13 @@
         <v>1228</v>
       </c>
       <c r="H483" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I483" t="s">
         <v>1258</v>
       </c>
       <c r="J483" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K483" t="s">
         <v>952</v>
@@ -20892,13 +20889,13 @@
         <v>1228</v>
       </c>
       <c r="H484" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I484" t="s">
         <v>1258</v>
       </c>
       <c r="J484" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K484" t="s">
         <v>952</v>
@@ -20921,13 +20918,13 @@
         <v>1228</v>
       </c>
       <c r="H485" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I485" t="s">
         <v>1258</v>
       </c>
       <c r="J485" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K485" t="s">
         <v>952</v>
@@ -20950,13 +20947,13 @@
         <v>1228</v>
       </c>
       <c r="H486" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I486" t="s">
         <v>1258</v>
       </c>
       <c r="J486" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K486" t="s">
         <v>952</v>
@@ -21084,13 +21081,13 @@
         <v>1228</v>
       </c>
       <c r="H490" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I490" t="s">
         <v>1258</v>
       </c>
       <c r="J490" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K490" t="s">
         <v>952</v>
@@ -22898,7 +22895,7 @@
         <v>1239</v>
       </c>
       <c r="H542" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I542" t="s">
         <v>1255</v>
@@ -22927,7 +22924,7 @@
         <v>1239</v>
       </c>
       <c r="H543" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I543" t="s">
         <v>1255</v>
@@ -22956,7 +22953,7 @@
         <v>1239</v>
       </c>
       <c r="H544" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I544" t="s">
         <v>1255</v>
@@ -22985,7 +22982,7 @@
         <v>1239</v>
       </c>
       <c r="H545" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I545" t="s">
         <v>1255</v>
@@ -23014,7 +23011,7 @@
         <v>1239</v>
       </c>
       <c r="H546" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I546" t="s">
         <v>1255</v>
@@ -23043,7 +23040,7 @@
         <v>1239</v>
       </c>
       <c r="H547" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I547" t="s">
         <v>1255</v>
@@ -23072,7 +23069,7 @@
         <v>1239</v>
       </c>
       <c r="H548" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I548" t="s">
         <v>1255</v>
@@ -23101,7 +23098,7 @@
         <v>1239</v>
       </c>
       <c r="H549" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I549" t="s">
         <v>1255</v>
@@ -23130,7 +23127,7 @@
         <v>1239</v>
       </c>
       <c r="H550" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I550" t="s">
         <v>1255</v>
@@ -23159,7 +23156,7 @@
         <v>1239</v>
       </c>
       <c r="H551" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I551" t="s">
         <v>1255</v>
@@ -23188,7 +23185,7 @@
         <v>1239</v>
       </c>
       <c r="H552" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I552" t="s">
         <v>1255</v>
@@ -23217,7 +23214,7 @@
         <v>1239</v>
       </c>
       <c r="H553" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I553" t="s">
         <v>1255</v>
@@ -23246,7 +23243,7 @@
         <v>1239</v>
       </c>
       <c r="H554" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I554" t="s">
         <v>1255</v>
@@ -23275,7 +23272,7 @@
         <v>1239</v>
       </c>
       <c r="H555" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I555" t="s">
         <v>1255</v>
@@ -23304,7 +23301,7 @@
         <v>1239</v>
       </c>
       <c r="H556" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I556" t="s">
         <v>1255</v>
@@ -23333,7 +23330,7 @@
         <v>1239</v>
       </c>
       <c r="H557" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I557" t="s">
         <v>1255</v>
@@ -23362,7 +23359,7 @@
         <v>1239</v>
       </c>
       <c r="H558" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I558" t="s">
         <v>1255</v>
@@ -23391,7 +23388,7 @@
         <v>1239</v>
       </c>
       <c r="H559" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I559" t="s">
         <v>1255</v>
@@ -23420,7 +23417,7 @@
         <v>1239</v>
       </c>
       <c r="H560" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I560" t="s">
         <v>1255</v>
@@ -23449,7 +23446,7 @@
         <v>1239</v>
       </c>
       <c r="H561" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I561" t="s">
         <v>1255</v>
@@ -23478,7 +23475,7 @@
         <v>1239</v>
       </c>
       <c r="H562" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I562" t="s">
         <v>1255</v>
@@ -23507,7 +23504,7 @@
         <v>1239</v>
       </c>
       <c r="H563" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I563" t="s">
         <v>1255</v>
@@ -23536,7 +23533,7 @@
         <v>1239</v>
       </c>
       <c r="H564" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I564" t="s">
         <v>1255</v>
@@ -23565,7 +23562,7 @@
         <v>1239</v>
       </c>
       <c r="H565" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I565" t="s">
         <v>1255</v>
@@ -23594,7 +23591,7 @@
         <v>1239</v>
       </c>
       <c r="H566" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I566" t="s">
         <v>1255</v>
@@ -23623,7 +23620,7 @@
         <v>1239</v>
       </c>
       <c r="H567" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I567" t="s">
         <v>1255</v>
@@ -23652,7 +23649,7 @@
         <v>1239</v>
       </c>
       <c r="H568" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I568" t="s">
         <v>1255</v>
@@ -23681,7 +23678,7 @@
         <v>1239</v>
       </c>
       <c r="H569" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I569" t="s">
         <v>1255</v>
@@ -23710,7 +23707,7 @@
         <v>1239</v>
       </c>
       <c r="H570" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I570" t="s">
         <v>1255</v>
@@ -23739,7 +23736,7 @@
         <v>1239</v>
       </c>
       <c r="H571" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I571" t="s">
         <v>1255</v>
@@ -23768,7 +23765,7 @@
         <v>1239</v>
       </c>
       <c r="H572" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I572" t="s">
         <v>1255</v>
@@ -23797,7 +23794,7 @@
         <v>1239</v>
       </c>
       <c r="H573" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I573" t="s">
         <v>1255</v>
@@ -23826,7 +23823,7 @@
         <v>1239</v>
       </c>
       <c r="H574" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I574" t="s">
         <v>1255</v>
@@ -23855,7 +23852,7 @@
         <v>1239</v>
       </c>
       <c r="H575" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I575" t="s">
         <v>1255</v>
@@ -23884,7 +23881,7 @@
         <v>1239</v>
       </c>
       <c r="H576" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I576" t="s">
         <v>1255</v>
@@ -23913,7 +23910,7 @@
         <v>1239</v>
       </c>
       <c r="H577" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I577" t="s">
         <v>1255</v>
@@ -23942,7 +23939,7 @@
         <v>1239</v>
       </c>
       <c r="H578" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I578" t="s">
         <v>1255</v>
@@ -23971,7 +23968,7 @@
         <v>1239</v>
       </c>
       <c r="H579" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I579" t="s">
         <v>1255</v>
@@ -24000,7 +23997,7 @@
         <v>1239</v>
       </c>
       <c r="H580" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I580" t="s">
         <v>1255</v>
@@ -24029,7 +24026,7 @@
         <v>1239</v>
       </c>
       <c r="H581" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I581" t="s">
         <v>1255</v>
@@ -24058,7 +24055,7 @@
         <v>1239</v>
       </c>
       <c r="H582" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I582" t="s">
         <v>1255</v>
@@ -24087,7 +24084,7 @@
         <v>1239</v>
       </c>
       <c r="H583" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I583" t="s">
         <v>1255</v>
@@ -24116,7 +24113,7 @@
         <v>1239</v>
       </c>
       <c r="H584" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I584" t="s">
         <v>1255</v>
@@ -24145,7 +24142,7 @@
         <v>1239</v>
       </c>
       <c r="H585" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I585" t="s">
         <v>1255</v>
@@ -24174,7 +24171,7 @@
         <v>1239</v>
       </c>
       <c r="H586" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I586" t="s">
         <v>1255</v>
@@ -24203,7 +24200,7 @@
         <v>1239</v>
       </c>
       <c r="H587" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I587" t="s">
         <v>1255</v>
@@ -25043,7 +25040,7 @@
         <v>1256</v>
       </c>
       <c r="J611" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K611" t="s">
         <v>761</v>
@@ -25072,7 +25069,7 @@
         <v>1256</v>
       </c>
       <c r="J612" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K612" t="s">
         <v>761</v>
@@ -25101,7 +25098,7 @@
         <v>1256</v>
       </c>
       <c r="J613" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K613" t="s">
         <v>761</v>
@@ -25130,7 +25127,7 @@
         <v>1256</v>
       </c>
       <c r="J614" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K614" t="s">
         <v>761</v>
@@ -25159,7 +25156,7 @@
         <v>1256</v>
       </c>
       <c r="J615" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K615" t="s">
         <v>761</v>
@@ -25188,7 +25185,7 @@
         <v>1256</v>
       </c>
       <c r="J616" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K616" t="s">
         <v>761</v>
@@ -25217,7 +25214,7 @@
         <v>1256</v>
       </c>
       <c r="J617" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K617" t="s">
         <v>761</v>
@@ -25246,7 +25243,7 @@
         <v>1256</v>
       </c>
       <c r="J618" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K618" t="s">
         <v>761</v>
@@ -25275,7 +25272,7 @@
         <v>1256</v>
       </c>
       <c r="J619" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K619" t="s">
         <v>761</v>
@@ -25304,7 +25301,7 @@
         <v>1256</v>
       </c>
       <c r="J620" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K620" t="s">
         <v>761</v>
@@ -25333,7 +25330,7 @@
         <v>1256</v>
       </c>
       <c r="J621" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K621" t="s">
         <v>761</v>
@@ -25362,7 +25359,7 @@
         <v>1256</v>
       </c>
       <c r="J622" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K622" t="s">
         <v>761</v>
@@ -25391,7 +25388,7 @@
         <v>1256</v>
       </c>
       <c r="J623" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K623" t="s">
         <v>761</v>
@@ -25420,7 +25417,7 @@
         <v>1256</v>
       </c>
       <c r="J624" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K624" t="s">
         <v>761</v>
@@ -25449,7 +25446,7 @@
         <v>1256</v>
       </c>
       <c r="J625" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K625" t="s">
         <v>761</v>
@@ -25478,7 +25475,7 @@
         <v>1256</v>
       </c>
       <c r="J626" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K626" t="s">
         <v>761</v>
@@ -25507,7 +25504,7 @@
         <v>1256</v>
       </c>
       <c r="J627" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K627" t="s">
         <v>761</v>
@@ -25536,7 +25533,7 @@
         <v>1256</v>
       </c>
       <c r="J628" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K628" t="s">
         <v>761</v>
@@ -25565,7 +25562,7 @@
         <v>1256</v>
       </c>
       <c r="J629" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K629" t="s">
         <v>761</v>
@@ -25594,7 +25591,7 @@
         <v>1256</v>
       </c>
       <c r="J630" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K630" t="s">
         <v>761</v>
@@ -25623,7 +25620,7 @@
         <v>1256</v>
       </c>
       <c r="J631" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K631" t="s">
         <v>761</v>
@@ -25652,7 +25649,7 @@
         <v>1256</v>
       </c>
       <c r="J632" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K632" t="s">
         <v>761</v>
@@ -25681,7 +25678,7 @@
         <v>1256</v>
       </c>
       <c r="J633" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K633" t="s">
         <v>761</v>
@@ -25710,7 +25707,7 @@
         <v>1256</v>
       </c>
       <c r="J634" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K634" t="s">
         <v>761</v>
@@ -25739,7 +25736,7 @@
         <v>1256</v>
       </c>
       <c r="J635" t="s">
-        <v>1385</v>
+        <v>448</v>
       </c>
       <c r="K635" t="s">
         <v>761</v>
@@ -27009,13 +27006,13 @@
         <v>1228</v>
       </c>
       <c r="H679" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I679" t="s">
         <v>1258</v>
       </c>
       <c r="J679" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K679" t="s">
         <v>952</v>
@@ -27038,13 +27035,13 @@
         <v>1228</v>
       </c>
       <c r="H680" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I680" t="s">
         <v>1258</v>
       </c>
       <c r="J680" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K680" t="s">
         <v>952</v>
@@ -27067,13 +27064,13 @@
         <v>1228</v>
       </c>
       <c r="H681" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I681" t="s">
         <v>1258</v>
       </c>
       <c r="J681" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K681" t="s">
         <v>952</v>
@@ -27096,13 +27093,13 @@
         <v>1228</v>
       </c>
       <c r="H682" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I682" t="s">
         <v>1258</v>
       </c>
       <c r="J682" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K682" t="s">
         <v>952</v>
@@ -27125,13 +27122,13 @@
         <v>1228</v>
       </c>
       <c r="H683" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I683" t="s">
         <v>1258</v>
       </c>
       <c r="J683" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K683" t="s">
         <v>952</v>
@@ -27154,13 +27151,13 @@
         <v>1228</v>
       </c>
       <c r="H684" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I684" t="s">
         <v>1258</v>
       </c>
       <c r="J684" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K684" t="s">
         <v>952</v>
@@ -27183,13 +27180,13 @@
         <v>1228</v>
       </c>
       <c r="H685" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I685" t="s">
         <v>1258</v>
       </c>
       <c r="J685" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K685" t="s">
         <v>952</v>
@@ -27212,13 +27209,13 @@
         <v>1228</v>
       </c>
       <c r="H686" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I686" t="s">
         <v>1258</v>
       </c>
       <c r="J686" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K686" t="s">
         <v>952</v>
@@ -27253,13 +27250,13 @@
         <v>1259</v>
       </c>
       <c r="J687" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K687" t="s">
         <v>1096</v>
       </c>
       <c r="L687" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="688" spans="1:12" x14ac:dyDescent="0.2">
@@ -27288,13 +27285,13 @@
         <v>1259</v>
       </c>
       <c r="J688" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K688" t="s">
         <v>1096</v>
       </c>
       <c r="L688" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="689" spans="1:12" x14ac:dyDescent="0.2">
@@ -27323,13 +27320,13 @@
         <v>1259</v>
       </c>
       <c r="J689" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K689" t="s">
         <v>1096</v>
       </c>
       <c r="L689" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="690" spans="1:12" x14ac:dyDescent="0.2">
@@ -27358,13 +27355,13 @@
         <v>1259</v>
       </c>
       <c r="J690" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K690" t="s">
         <v>1096</v>
       </c>
       <c r="L690" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="691" spans="1:12" x14ac:dyDescent="0.2">
@@ -27393,13 +27390,13 @@
         <v>1259</v>
       </c>
       <c r="J691" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K691" t="s">
         <v>1096</v>
       </c>
       <c r="L691" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="692" spans="1:12" x14ac:dyDescent="0.2">
@@ -27428,13 +27425,13 @@
         <v>1259</v>
       </c>
       <c r="J692" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K692" t="s">
         <v>1096</v>
       </c>
       <c r="L692" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="693" spans="1:12" x14ac:dyDescent="0.2">
@@ -27463,13 +27460,13 @@
         <v>1259</v>
       </c>
       <c r="J693" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K693" t="s">
         <v>1096</v>
       </c>
       <c r="L693" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="694" spans="1:12" x14ac:dyDescent="0.2">
@@ -27498,13 +27495,13 @@
         <v>1259</v>
       </c>
       <c r="J694" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K694" t="s">
         <v>1096</v>
       </c>
       <c r="L694" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="695" spans="1:12" x14ac:dyDescent="0.2">
@@ -27533,13 +27530,13 @@
         <v>1259</v>
       </c>
       <c r="J695" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K695" t="s">
         <v>1096</v>
       </c>
       <c r="L695" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="696" spans="1:12" x14ac:dyDescent="0.2">
@@ -27568,13 +27565,13 @@
         <v>1259</v>
       </c>
       <c r="J696" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K696" t="s">
         <v>1096</v>
       </c>
       <c r="L696" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="697" spans="1:12" x14ac:dyDescent="0.2">
@@ -27591,7 +27588,7 @@
         <v>1157</v>
       </c>
       <c r="F697" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="G697" t="s">
         <v>1243</v>
@@ -27603,13 +27600,13 @@
         <v>1259</v>
       </c>
       <c r="J697" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K697" t="s">
         <v>1096</v>
       </c>
       <c r="L697" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="698" spans="1:12" x14ac:dyDescent="0.2">
@@ -27638,13 +27635,13 @@
         <v>1259</v>
       </c>
       <c r="J698" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K698" t="s">
         <v>1096</v>
       </c>
       <c r="L698" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="699" spans="1:12" x14ac:dyDescent="0.2">
@@ -27673,13 +27670,13 @@
         <v>1259</v>
       </c>
       <c r="J699" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K699" t="s">
         <v>1096</v>
       </c>
       <c r="L699" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="700" spans="1:12" x14ac:dyDescent="0.2">
@@ -27708,13 +27705,13 @@
         <v>1259</v>
       </c>
       <c r="J700" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K700" t="s">
         <v>1096</v>
       </c>
       <c r="L700" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="701" spans="1:12" x14ac:dyDescent="0.2">
@@ -27743,13 +27740,13 @@
         <v>1259</v>
       </c>
       <c r="J701" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K701" t="s">
         <v>1096</v>
       </c>
       <c r="L701" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="702" spans="1:12" x14ac:dyDescent="0.2">
@@ -27778,13 +27775,13 @@
         <v>1259</v>
       </c>
       <c r="J702" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K702" t="s">
         <v>1096</v>
       </c>
       <c r="L702" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="703" spans="1:12" x14ac:dyDescent="0.2">
@@ -27813,13 +27810,13 @@
         <v>1259</v>
       </c>
       <c r="J703" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K703" t="s">
         <v>1096</v>
       </c>
       <c r="L703" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="704" spans="1:12" x14ac:dyDescent="0.2">
@@ -27848,13 +27845,13 @@
         <v>1259</v>
       </c>
       <c r="J704" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K704" t="s">
         <v>1096</v>
       </c>
       <c r="L704" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="705" spans="1:12" x14ac:dyDescent="0.2">
@@ -27883,13 +27880,13 @@
         <v>1259</v>
       </c>
       <c r="J705" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K705" t="s">
         <v>1096</v>
       </c>
       <c r="L705" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="706" spans="1:12" x14ac:dyDescent="0.2">
@@ -27918,13 +27915,13 @@
         <v>1259</v>
       </c>
       <c r="J706" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K706" t="s">
         <v>1096</v>
       </c>
       <c r="L706" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="707" spans="1:12" x14ac:dyDescent="0.2">
@@ -27941,7 +27938,7 @@
         <v>1180</v>
       </c>
       <c r="F707" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G707" t="s">
         <v>1243</v>
@@ -27953,13 +27950,13 @@
         <v>1259</v>
       </c>
       <c r="J707" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K707" t="s">
         <v>1096</v>
       </c>
       <c r="L707" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="708" spans="1:12" x14ac:dyDescent="0.2">
@@ -27976,7 +27973,7 @@
         <v>1182</v>
       </c>
       <c r="F708" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="G708" t="s">
         <v>1243</v>
@@ -27988,13 +27985,13 @@
         <v>1259</v>
       </c>
       <c r="J708" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K708" t="s">
         <v>1096</v>
       </c>
       <c r="L708" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="709" spans="1:12" x14ac:dyDescent="0.2">
@@ -28023,13 +28020,13 @@
         <v>1259</v>
       </c>
       <c r="J709" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K709" t="s">
         <v>1096</v>
       </c>
       <c r="L709" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="710" spans="1:12" x14ac:dyDescent="0.2">
@@ -28058,13 +28055,13 @@
         <v>1259</v>
       </c>
       <c r="J710" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K710" t="s">
         <v>1096</v>
       </c>
       <c r="L710" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="711" spans="1:12" x14ac:dyDescent="0.2">
@@ -28093,13 +28090,13 @@
         <v>1259</v>
       </c>
       <c r="J711" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K711" t="s">
         <v>1096</v>
       </c>
       <c r="L711" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="712" spans="1:12" x14ac:dyDescent="0.2">
@@ -28116,7 +28113,7 @@
         <v>1197</v>
       </c>
       <c r="F712" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="G712" t="s">
         <v>1243</v>
@@ -28128,13 +28125,13 @@
         <v>1259</v>
       </c>
       <c r="J712" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K712" t="s">
         <v>1096</v>
       </c>
       <c r="L712" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="713" spans="1:12" x14ac:dyDescent="0.2">
@@ -28163,13 +28160,13 @@
         <v>1259</v>
       </c>
       <c r="J713" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K713" t="s">
         <v>1096</v>
       </c>
       <c r="L713" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="714" spans="1:12" x14ac:dyDescent="0.2">
@@ -28198,13 +28195,13 @@
         <v>1259</v>
       </c>
       <c r="J714" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K714" t="s">
         <v>1096</v>
       </c>
       <c r="L714" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="715" spans="1:12" x14ac:dyDescent="0.2">
@@ -28233,13 +28230,13 @@
         <v>1259</v>
       </c>
       <c r="J715" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K715" t="s">
         <v>1096</v>
       </c>
       <c r="L715" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="716" spans="1:12" x14ac:dyDescent="0.2">
@@ -28268,13 +28265,13 @@
         <v>1259</v>
       </c>
       <c r="J716" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K716" t="s">
         <v>1096</v>
       </c>
       <c r="L716" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="717" spans="1:12" x14ac:dyDescent="0.2">
@@ -28291,7 +28288,7 @@
         <v>1210</v>
       </c>
       <c r="F717" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="G717" t="s">
         <v>1243</v>
@@ -28303,13 +28300,13 @@
         <v>1259</v>
       </c>
       <c r="J717" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K717" t="s">
         <v>1096</v>
       </c>
       <c r="L717" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="718" spans="1:12" x14ac:dyDescent="0.2">
@@ -28326,7 +28323,7 @@
         <v>1212</v>
       </c>
       <c r="F718" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="G718" t="s">
         <v>1243</v>
@@ -28338,13 +28335,13 @@
         <v>1259</v>
       </c>
       <c r="J718" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K718" t="s">
         <v>1096</v>
       </c>
       <c r="L718" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="719" spans="1:12" x14ac:dyDescent="0.2">
@@ -28373,13 +28370,13 @@
         <v>1259</v>
       </c>
       <c r="J719" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K719" t="s">
         <v>1096</v>
       </c>
       <c r="L719" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="720" spans="1:12" x14ac:dyDescent="0.2">
@@ -28408,13 +28405,13 @@
         <v>1259</v>
       </c>
       <c r="J720" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K720" t="s">
         <v>1096</v>
       </c>
       <c r="L720" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="721" spans="1:12" x14ac:dyDescent="0.2">
@@ -28443,13 +28440,13 @@
         <v>1259</v>
       </c>
       <c r="J721" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K721" t="s">
         <v>1096</v>
       </c>
       <c r="L721" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="722" spans="1:12" x14ac:dyDescent="0.2">
@@ -28466,7 +28463,7 @@
         <v>1220</v>
       </c>
       <c r="F722" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="G722" t="s">
         <v>1243</v>
@@ -28478,13 +28475,13 @@
         <v>1259</v>
       </c>
       <c r="J722" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K722" t="s">
         <v>1096</v>
       </c>
       <c r="L722" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="723" spans="1:12" x14ac:dyDescent="0.2">
@@ -28501,7 +28498,7 @@
         <v>1222</v>
       </c>
       <c r="F723" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="G723" t="s">
         <v>1243</v>
@@ -28513,13 +28510,13 @@
         <v>1259</v>
       </c>
       <c r="J723" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K723" t="s">
         <v>1096</v>
       </c>
       <c r="L723" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="724" spans="1:12" x14ac:dyDescent="0.2">
@@ -28548,13 +28545,13 @@
         <v>1259</v>
       </c>
       <c r="J724" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K724" t="s">
         <v>1096</v>
       </c>
       <c r="L724" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="725" spans="1:12" x14ac:dyDescent="0.2">
@@ -28583,13 +28580,13 @@
         <v>1259</v>
       </c>
       <c r="J725" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K725" t="s">
         <v>1096</v>
       </c>
       <c r="L725" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="726" spans="1:12" x14ac:dyDescent="0.2">
@@ -28827,19 +28824,19 @@
         <v>1095</v>
       </c>
       <c r="H733" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I733" t="s">
         <v>1259</v>
       </c>
       <c r="J733" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K733" t="s">
         <v>1096</v>
       </c>
       <c r="L733" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="734" spans="1:12" x14ac:dyDescent="0.2">
@@ -28856,19 +28853,19 @@
         <v>1095</v>
       </c>
       <c r="H734" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I734" t="s">
         <v>1259</v>
       </c>
       <c r="J734" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K734" t="s">
         <v>1096</v>
       </c>
       <c r="L734" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="735" spans="1:12" x14ac:dyDescent="0.2">
@@ -31151,19 +31148,19 @@
         <v>1380</v>
       </c>
       <c r="H815" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I815" t="s">
         <v>1259</v>
       </c>
       <c r="J815" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K815" t="s">
         <v>1096</v>
       </c>
       <c r="L815" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="816" spans="1:12" x14ac:dyDescent="0.2">
@@ -31180,19 +31177,19 @@
         <v>1380</v>
       </c>
       <c r="H816" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I816" t="s">
         <v>1259</v>
       </c>
       <c r="J816" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K816" t="s">
         <v>1096</v>
       </c>
       <c r="L816" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="817" spans="1:12" x14ac:dyDescent="0.2">
@@ -31209,19 +31206,19 @@
         <v>1381</v>
       </c>
       <c r="H817" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I817" t="s">
         <v>1259</v>
       </c>
       <c r="J817" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K817" t="s">
         <v>1096</v>
       </c>
       <c r="L817" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="818" spans="1:12" x14ac:dyDescent="0.2">
@@ -31238,19 +31235,19 @@
         <v>1381</v>
       </c>
       <c r="H818" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I818" t="s">
         <v>1259</v>
       </c>
       <c r="J818" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K818" t="s">
         <v>1096</v>
       </c>
       <c r="L818" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="819" spans="1:12" x14ac:dyDescent="0.2">
@@ -31267,19 +31264,19 @@
         <v>1381</v>
       </c>
       <c r="H819" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I819" t="s">
         <v>1259</v>
       </c>
       <c r="J819" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K819" t="s">
         <v>1096</v>
       </c>
       <c r="L819" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="820" spans="1:12" x14ac:dyDescent="0.2">
@@ -31296,19 +31293,19 @@
         <v>1381</v>
       </c>
       <c r="H820" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I820" t="s">
         <v>1259</v>
       </c>
       <c r="J820" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K820" t="s">
         <v>1096</v>
       </c>
       <c r="L820" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="821" spans="1:12" x14ac:dyDescent="0.2">
@@ -31325,19 +31322,19 @@
         <v>1380</v>
       </c>
       <c r="H821" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I821" t="s">
         <v>1259</v>
       </c>
       <c r="J821" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K821" t="s">
         <v>1096</v>
       </c>
       <c r="L821" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="822" spans="1:12" x14ac:dyDescent="0.2">
@@ -31354,19 +31351,19 @@
         <v>1380</v>
       </c>
       <c r="H822" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I822" t="s">
         <v>1259</v>
       </c>
       <c r="J822" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K822" t="s">
         <v>1096</v>
       </c>
       <c r="L822" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="823" spans="1:12" x14ac:dyDescent="0.2">
@@ -31383,19 +31380,19 @@
         <v>1380</v>
       </c>
       <c r="H823" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I823" t="s">
         <v>1259</v>
       </c>
       <c r="J823" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K823" t="s">
         <v>1096</v>
       </c>
       <c r="L823" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="824" spans="1:12" x14ac:dyDescent="0.2">
@@ -31412,19 +31409,19 @@
         <v>1380</v>
       </c>
       <c r="H824" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I824" t="s">
         <v>1259</v>
       </c>
       <c r="J824" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K824" t="s">
         <v>1096</v>
       </c>
       <c r="L824" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="825" spans="1:12" x14ac:dyDescent="0.2">
@@ -31435,25 +31432,25 @@
         <v>1338</v>
       </c>
       <c r="F825" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="G825" t="s">
         <v>1380</v>
       </c>
       <c r="H825" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I825" t="s">
         <v>1259</v>
       </c>
       <c r="J825" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K825" t="s">
         <v>1096</v>
       </c>
       <c r="L825" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="826" spans="1:12" x14ac:dyDescent="0.2">
@@ -31470,19 +31467,19 @@
         <v>1380</v>
       </c>
       <c r="H826" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I826" t="s">
         <v>1259</v>
       </c>
       <c r="J826" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K826" t="s">
         <v>1096</v>
       </c>
       <c r="L826" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="827" spans="1:12" x14ac:dyDescent="0.2">
@@ -31499,19 +31496,19 @@
         <v>1380</v>
       </c>
       <c r="H827" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I827" t="s">
         <v>1259</v>
       </c>
       <c r="J827" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K827" t="s">
         <v>1096</v>
       </c>
       <c r="L827" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="828" spans="1:12" x14ac:dyDescent="0.2">
@@ -31528,19 +31525,19 @@
         <v>1380</v>
       </c>
       <c r="H828" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I828" t="s">
         <v>1259</v>
       </c>
       <c r="J828" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K828" t="s">
         <v>1096</v>
       </c>
       <c r="L828" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="829" spans="1:12" x14ac:dyDescent="0.2">
@@ -31557,19 +31554,19 @@
         <v>1380</v>
       </c>
       <c r="H829" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I829" t="s">
         <v>1259</v>
       </c>
       <c r="J829" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K829" t="s">
         <v>1096</v>
       </c>
       <c r="L829" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="830" spans="1:12" x14ac:dyDescent="0.2">
@@ -31586,19 +31583,19 @@
         <v>1380</v>
       </c>
       <c r="H830" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I830" t="s">
         <v>1259</v>
       </c>
       <c r="J830" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K830" t="s">
         <v>1096</v>
       </c>
       <c r="L830" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="831" spans="1:12" x14ac:dyDescent="0.2">
@@ -31615,19 +31612,19 @@
         <v>1380</v>
       </c>
       <c r="H831" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I831" t="s">
         <v>1259</v>
       </c>
       <c r="J831" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K831" t="s">
         <v>1096</v>
       </c>
       <c r="L831" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="832" spans="1:12" x14ac:dyDescent="0.2">
@@ -31644,19 +31641,19 @@
         <v>1380</v>
       </c>
       <c r="H832" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I832" t="s">
         <v>1259</v>
       </c>
       <c r="J832" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K832" t="s">
         <v>1096</v>
       </c>
       <c r="L832" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="833" spans="1:12" x14ac:dyDescent="0.2">
@@ -31673,19 +31670,19 @@
         <v>1380</v>
       </c>
       <c r="H833" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I833" t="s">
         <v>1259</v>
       </c>
       <c r="J833" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K833" t="s">
         <v>1096</v>
       </c>
       <c r="L833" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="834" spans="1:12" x14ac:dyDescent="0.2">
@@ -31702,19 +31699,19 @@
         <v>1380</v>
       </c>
       <c r="H834" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I834" t="s">
         <v>1259</v>
       </c>
       <c r="J834" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K834" t="s">
         <v>1096</v>
       </c>
       <c r="L834" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="835" spans="1:12" x14ac:dyDescent="0.2">
@@ -31725,25 +31722,25 @@
         <v>1348</v>
       </c>
       <c r="F835" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G835" t="s">
         <v>1380</v>
       </c>
       <c r="H835" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I835" t="s">
         <v>1259</v>
       </c>
       <c r="J835" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K835" t="s">
         <v>1096</v>
       </c>
       <c r="L835" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="836" spans="1:12" x14ac:dyDescent="0.2">
@@ -31754,25 +31751,25 @@
         <v>1349</v>
       </c>
       <c r="F836" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="G836" t="s">
         <v>1380</v>
       </c>
       <c r="H836" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I836" t="s">
         <v>1259</v>
       </c>
       <c r="J836" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K836" t="s">
         <v>1096</v>
       </c>
       <c r="L836" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="837" spans="1:12" x14ac:dyDescent="0.2">
@@ -31789,19 +31786,19 @@
         <v>1380</v>
       </c>
       <c r="H837" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I837" t="s">
         <v>1259</v>
       </c>
       <c r="J837" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K837" t="s">
         <v>1096</v>
       </c>
       <c r="L837" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="838" spans="1:12" x14ac:dyDescent="0.2">
@@ -31818,19 +31815,19 @@
         <v>1380</v>
       </c>
       <c r="H838" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I838" t="s">
         <v>1259</v>
       </c>
       <c r="J838" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K838" t="s">
         <v>1096</v>
       </c>
       <c r="L838" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="839" spans="1:12" x14ac:dyDescent="0.2">
@@ -31847,19 +31844,19 @@
         <v>1380</v>
       </c>
       <c r="H839" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I839" t="s">
         <v>1259</v>
       </c>
       <c r="J839" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K839" t="s">
         <v>1096</v>
       </c>
       <c r="L839" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="840" spans="1:12" x14ac:dyDescent="0.2">
@@ -31870,25 +31867,25 @@
         <v>1358</v>
       </c>
       <c r="F840" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="G840" t="s">
         <v>1381</v>
       </c>
       <c r="H840" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I840" t="s">
         <v>1259</v>
       </c>
       <c r="J840" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K840" t="s">
         <v>1096</v>
       </c>
       <c r="L840" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="841" spans="1:12" x14ac:dyDescent="0.2">
@@ -31905,19 +31902,19 @@
         <v>1381</v>
       </c>
       <c r="H841" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I841" t="s">
         <v>1259</v>
       </c>
       <c r="J841" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K841" t="s">
         <v>1096</v>
       </c>
       <c r="L841" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="842" spans="1:12" x14ac:dyDescent="0.2">
@@ -31934,19 +31931,19 @@
         <v>1381</v>
       </c>
       <c r="H842" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I842" t="s">
         <v>1259</v>
       </c>
       <c r="J842" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K842" t="s">
         <v>1096</v>
       </c>
       <c r="L842" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="843" spans="1:12" x14ac:dyDescent="0.2">
@@ -31963,19 +31960,19 @@
         <v>1381</v>
       </c>
       <c r="H843" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I843" t="s">
         <v>1259</v>
       </c>
       <c r="J843" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K843" t="s">
         <v>1096</v>
       </c>
       <c r="L843" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="844" spans="1:12" x14ac:dyDescent="0.2">
@@ -31992,19 +31989,19 @@
         <v>1381</v>
       </c>
       <c r="H844" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I844" t="s">
         <v>1259</v>
       </c>
       <c r="J844" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K844" t="s">
         <v>1096</v>
       </c>
       <c r="L844" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="845" spans="1:12" x14ac:dyDescent="0.2">
@@ -32015,25 +32012,25 @@
         <v>1363</v>
       </c>
       <c r="F845" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="G845" t="s">
         <v>1381</v>
       </c>
       <c r="H845" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I845" t="s">
         <v>1259</v>
       </c>
       <c r="J845" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K845" t="s">
         <v>1096</v>
       </c>
       <c r="L845" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="846" spans="1:12" x14ac:dyDescent="0.2">
@@ -32044,25 +32041,25 @@
         <v>1357</v>
       </c>
       <c r="F846" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="G846" t="s">
         <v>1381</v>
       </c>
       <c r="H846" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I846" t="s">
         <v>1259</v>
       </c>
       <c r="J846" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K846" t="s">
         <v>1096</v>
       </c>
       <c r="L846" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="847" spans="1:12" x14ac:dyDescent="0.2">
@@ -32079,19 +32076,19 @@
         <v>1381</v>
       </c>
       <c r="H847" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I847" t="s">
         <v>1259</v>
       </c>
       <c r="J847" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K847" t="s">
         <v>1096</v>
       </c>
       <c r="L847" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="848" spans="1:12" x14ac:dyDescent="0.2">
@@ -32108,19 +32105,19 @@
         <v>1381</v>
       </c>
       <c r="H848" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I848" t="s">
         <v>1259</v>
       </c>
       <c r="J848" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K848" t="s">
         <v>1096</v>
       </c>
       <c r="L848" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="849" spans="1:12" x14ac:dyDescent="0.2">
@@ -32137,19 +32134,19 @@
         <v>1381</v>
       </c>
       <c r="H849" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I849" t="s">
         <v>1259</v>
       </c>
       <c r="J849" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K849" t="s">
         <v>1096</v>
       </c>
       <c r="L849" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="850" spans="1:12" x14ac:dyDescent="0.2">
@@ -32160,25 +32157,25 @@
         <v>1366</v>
       </c>
       <c r="F850" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="G850" t="s">
         <v>1381</v>
       </c>
       <c r="H850" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I850" t="s">
         <v>1259</v>
       </c>
       <c r="J850" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K850" t="s">
         <v>1096</v>
       </c>
       <c r="L850" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="851" spans="1:12" x14ac:dyDescent="0.2">
@@ -32189,25 +32186,25 @@
         <v>1370</v>
       </c>
       <c r="F851" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="G851" t="s">
         <v>1381</v>
       </c>
       <c r="H851" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I851" t="s">
         <v>1259</v>
       </c>
       <c r="J851" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K851" t="s">
         <v>1096</v>
       </c>
       <c r="L851" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="852" spans="1:12" x14ac:dyDescent="0.2">
@@ -32224,19 +32221,19 @@
         <v>1381</v>
       </c>
       <c r="H852" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I852" t="s">
         <v>1259</v>
       </c>
       <c r="J852" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K852" t="s">
         <v>1096</v>
       </c>
       <c r="L852" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="853" spans="1:12" x14ac:dyDescent="0.2">
@@ -32253,19 +32250,19 @@
         <v>1381</v>
       </c>
       <c r="H853" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I853" t="s">
         <v>1259</v>
       </c>
       <c r="J853" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K853" t="s">
         <v>1096</v>
       </c>
       <c r="L853" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="854" spans="1:12" x14ac:dyDescent="0.2">

--- a/data-raw/files/locations/norway_locations.xlsx
+++ b/data-raw/files/locations/norway_locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/containers/volumes/workbench/r-packages/csdata/data-raw/files/locations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EC7255-D4B3-2940-8E13-EFFB527C2E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428A4757-EAC5-814D-AEA5-F9EFEFC90601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10780" yWindow="4420" windowWidth="37020" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53500" yWindow="10280" windowWidth="37020" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4589,8 +4589,8 @@
   <dimension ref="A1:L855"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J182" sqref="J182"/>
+      <pane ySplit="1" topLeftCell="A831" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D855" sqref="D855"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32269,9 +32269,6 @@
       <c r="A854">
         <v>2023</v>
       </c>
-      <c r="D854">
-        <v>0.5</v>
-      </c>
       <c r="E854" t="s">
         <v>1371</v>
       </c>
@@ -32300,9 +32297,6 @@
     <row r="855" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>2023</v>
-      </c>
-      <c r="D855">
-        <v>0.5</v>
       </c>
       <c r="E855" t="s">
         <v>1372</v>
